--- a/po_analysis_by_asin/B098Q5RC7M_po_data.xlsx
+++ b/po_analysis_by_asin/B098Q5RC7M_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -549,7 +550,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -583,6 +584,285 @@
       </c>
       <c r="B5" t="n">
         <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>332</v>
+      </c>
+      <c r="C2" t="n">
+        <v>253.4522132684213</v>
+      </c>
+      <c r="D2" t="n">
+        <v>411.3155457228025</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>252</v>
+      </c>
+      <c r="C3" t="n">
+        <v>170.2949249094218</v>
+      </c>
+      <c r="D3" t="n">
+        <v>330.0871512403432</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>199</v>
+      </c>
+      <c r="C4" t="n">
+        <v>121.7718260428648</v>
+      </c>
+      <c r="D4" t="n">
+        <v>273.9830998178775</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>145</v>
+      </c>
+      <c r="C5" t="n">
+        <v>68.66528966001948</v>
+      </c>
+      <c r="D5" t="n">
+        <v>223.8180409423034</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>119</v>
+      </c>
+      <c r="C6" t="n">
+        <v>42.6595592112245</v>
+      </c>
+      <c r="D6" t="n">
+        <v>195.5153102351869</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>92</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15.05236162447617</v>
+      </c>
+      <c r="D7" t="n">
+        <v>170.3544847003631</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>65</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-9.918576947272994</v>
+      </c>
+      <c r="D8" t="n">
+        <v>141.9666229086928</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>39</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-41.1820848932865</v>
+      </c>
+      <c r="D9" t="n">
+        <v>116.9196120324288</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-92.58177090536009</v>
+      </c>
+      <c r="D10" t="n">
+        <v>59.41036703003063</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-121.5975907961046</v>
+      </c>
+      <c r="D11" t="n">
+        <v>39.19518382188178</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-143.5349575903837</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7.667615098059104</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-172.4864538994149</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-18.80595458126125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-200.2625654441687</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-46.29101847968764</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-232.9277507735973</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-70.15271535148342</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-250.5120089659029</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-96.71608761770345</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-281.8327325502055</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-129.0203774429511</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-307.2806077507333</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-152.9657283623877</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B098Q5RC7M_po_data.xlsx
+++ b/po_analysis_by_asin/B098Q5RC7M_po_data.xlsx
@@ -597,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,16 +616,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -634,12 +624,6 @@
       <c r="B2" t="n">
         <v>332</v>
       </c>
-      <c r="C2" t="n">
-        <v>253.4522132684213</v>
-      </c>
-      <c r="D2" t="n">
-        <v>411.3155457228025</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -648,12 +632,6 @@
       <c r="B3" t="n">
         <v>252</v>
       </c>
-      <c r="C3" t="n">
-        <v>170.2949249094218</v>
-      </c>
-      <c r="D3" t="n">
-        <v>330.0871512403432</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -662,12 +640,6 @@
       <c r="B4" t="n">
         <v>199</v>
       </c>
-      <c r="C4" t="n">
-        <v>121.7718260428648</v>
-      </c>
-      <c r="D4" t="n">
-        <v>273.9830998178775</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -676,12 +648,6 @@
       <c r="B5" t="n">
         <v>145</v>
       </c>
-      <c r="C5" t="n">
-        <v>68.66528966001948</v>
-      </c>
-      <c r="D5" t="n">
-        <v>223.8180409423034</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -690,12 +656,6 @@
       <c r="B6" t="n">
         <v>119</v>
       </c>
-      <c r="C6" t="n">
-        <v>42.6595592112245</v>
-      </c>
-      <c r="D6" t="n">
-        <v>195.5153102351869</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -704,12 +664,6 @@
       <c r="B7" t="n">
         <v>92</v>
       </c>
-      <c r="C7" t="n">
-        <v>15.05236162447617</v>
-      </c>
-      <c r="D7" t="n">
-        <v>170.3544847003631</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -718,12 +672,6 @@
       <c r="B8" t="n">
         <v>65</v>
       </c>
-      <c r="C8" t="n">
-        <v>-9.918576947272994</v>
-      </c>
-      <c r="D8" t="n">
-        <v>141.9666229086928</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -732,12 +680,6 @@
       <c r="B9" t="n">
         <v>39</v>
       </c>
-      <c r="C9" t="n">
-        <v>-41.1820848932865</v>
-      </c>
-      <c r="D9" t="n">
-        <v>116.9196120324288</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -746,12 +688,6 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="n">
-        <v>-92.58177090536009</v>
-      </c>
-      <c r="D10" t="n">
-        <v>59.41036703003063</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -760,12 +696,6 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
-        <v>-121.5975907961046</v>
-      </c>
-      <c r="D11" t="n">
-        <v>39.19518382188178</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -774,12 +704,6 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="n">
-        <v>-143.5349575903837</v>
-      </c>
-      <c r="D12" t="n">
-        <v>7.667615098059104</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -788,12 +712,6 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>-172.4864538994149</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-18.80595458126125</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -802,12 +720,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>-200.2625654441687</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-46.29101847968764</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -816,12 +728,6 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="n">
-        <v>-232.9277507735973</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-70.15271535148342</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -830,12 +736,6 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="n">
-        <v>-250.5120089659029</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-96.71608761770345</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -844,12 +744,6 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="n">
-        <v>-281.8327325502055</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-129.0203774429511</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -857,12 +751,6 @@
       </c>
       <c r="B18" t="n">
         <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-307.2806077507333</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-152.9657283623877</v>
       </c>
     </row>
   </sheetData>
